--- a/docs/总表.xlsx
+++ b/docs/总表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
   <si>
     <t>python</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>实现多client并行化</t>
+  </si>
+  <si>
+    <t>GBN协议</t>
   </si>
 </sst>
 </file>
@@ -77,10 +80,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -99,6 +102,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -106,7 +116,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,60 +177,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -182,6 +185,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -198,31 +225,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,79 +247,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,103 +427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,15 +456,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -481,7 +475,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,8 +483,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,17 +504,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -535,6 +518,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -543,10 +546,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -555,133 +558,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1037,10 +1040,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1115,9 +1118,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -1128,6 +1134,11 @@
     <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/总表.xlsx
+++ b/docs/总表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
   <si>
     <t>python</t>
   </si>
@@ -69,10 +69,19 @@
     <t>记录日志</t>
   </si>
   <si>
-    <t>实现多client并行化</t>
+    <t>实现多client全双工通信</t>
   </si>
   <si>
     <t>GBN协议</t>
+  </si>
+  <si>
+    <t>GBN生成器</t>
+  </si>
+  <si>
+    <t>统计分析</t>
+  </si>
+  <si>
+    <t>制作文档及PPT</t>
   </si>
 </sst>
 </file>
@@ -80,10 +89,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -95,14 +104,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,23 +139,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -148,6 +165,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,16 +203,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,31 +226,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,25 +256,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,157 +412,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,6 +465,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -471,11 +489,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,17 +513,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,17 +547,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -546,145 +555,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1040,15 +1049,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="25.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:12">
@@ -1131,14 +1140,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
